--- a/src/Simulation_formule_distance_hauteur.xlsx
+++ b/src/Simulation_formule_distance_hauteur.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zouzhiying/Documents/1A/Artefact/teamb/src/camera/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zouzhiying/Documents/1A/Artefact/teamb/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F07B05-CB34-224B-883E-19D7BF020632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C87F0F6-C1DE-944E-BE11-22702FA87864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7B930C7B-83C0-DD44-B231-66D4C865A978}"/>
   </bookViews>
@@ -135,47 +135,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Distance(cm)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>height(pixel)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -216,11 +175,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>height(pixel)</c:v>
+                  <c:v>distance(cm)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -247,86 +206,100 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$L$3</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>540</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>465</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>342</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>296</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>97</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -334,7 +307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-114B-AA41-AC95-501BCF1F1114}"/>
+              <c16:uniqueId val="{00000000-1E44-AD45-8389-B9C41068476F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -346,11 +319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1681601776"/>
-        <c:axId val="1679260384"/>
+        <c:axId val="1270085855"/>
+        <c:axId val="1270539359"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1681601776"/>
+        <c:axId val="1270085855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,12 +380,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1679260384"/>
+        <c:crossAx val="1270539359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1679260384"/>
+        <c:axId val="1270539359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,7 +442,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681601776"/>
+        <c:crossAx val="1270085855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -540,13 +513,262 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5893-3A43-BFFB-1570B9F68A40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1270623839"/>
+        <c:axId val="1270563599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1270623839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -558,18 +780,142 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1"/>
-              <a:t>Distance-Height</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400" b="1" baseline="0"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:rich>
-      </c:tx>
+        </c:txPr>
+        <c:crossAx val="1270563599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1270563599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270623839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -578,6 +924,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -586,96 +952,19 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>height(pixel)</c:v>
+                  <c:v>distance(cm)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17802602799650044"/>
-                  <c:y val="-0.24700823855351414"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>296</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6229-A842-8913-0F6C07C21014}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -714,8 +1003,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.2269028871391073E-2"/>
-                  <c:y val="-0.15821194225721785"/>
+                  <c:x val="1.7820715709131983E-2"/>
+                  <c:y val="-0.1636377752580149"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -750,60 +1039,120 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$L$3</c:f>
+              <c:f>Sheet1!$B$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$L$4</c:f>
+              <c:f>Sheet1!$B$3:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>296</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97</c:v>
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,7 +1160,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6229-A842-8913-0F6C07C21014}"/>
+              <c16:uniqueId val="{00000000-3E95-C040-A66B-6EF4E54C5D5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -823,11 +1172,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1681291840"/>
-        <c:axId val="1681889808"/>
+        <c:axId val="1319027599"/>
+        <c:axId val="1317269263"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1681291840"/>
+        <c:axId val="1319027599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,33 +1196,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-                  <a:t>distance</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-                  <a:t>(cm)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -911,12 +1233,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681889808"/>
+        <c:crossAx val="1317269263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1681889808"/>
+        <c:axId val="1317269263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,50 +1258,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-                  <a:t>height</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-                  <a:t>(pixel)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1017,16 +1295,44 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681291840"/>
+        <c:crossAx val="1319027599"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1045,7 +1351,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1060,13 +1366,231 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distance(cm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11079352580927385"/>
+                  <c:y val="0.17728929717118694"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0A9-654C-A2DE-83079A1FC4D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1271363471"/>
+        <c:axId val="1318897023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1271363471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1078,29 +1602,142 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>distance-height</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>&gt;=</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>30cm</a:t>
-            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:rich>
-      </c:tx>
+        </c:txPr>
+        <c:crossAx val="1318897023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1318897023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271363471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1177,8 +1814,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.2269028871391073E-2"/>
-                  <c:y val="-0.15821194225721785"/>
+                  <c:x val="-6.0163604549431322E-2"/>
+                  <c:y val="-0.27472914843977836"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1213,60 +1850,102 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$L$3</c:f>
+              <c:f>Sheet1!$E$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$L$4</c:f>
+              <c:f>Sheet1!$E$3:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>296</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,7 +1953,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8839-3847-BD74-91A9ADD60D84}"/>
+              <c16:uniqueId val="{00000000-6D1A-6B45-8D1C-279E314AF923}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1286,11 +1965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1681291840"/>
-        <c:axId val="1681889808"/>
+        <c:axId val="1324785087"/>
+        <c:axId val="1271247807"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1681291840"/>
+        <c:axId val="1324785087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,12 +2026,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681889808"/>
+        <c:crossAx val="1271247807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1681889808"/>
+        <c:axId val="1271247807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,70 +2051,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>height</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t>(cm)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1473,7 +2088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681291840"/>
+        <c:crossAx val="1324785087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1609,6 +2224,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2641,27 +3376,1575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>700051</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101794</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>327776</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>198352</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F642E0D5-A72E-814C-88CB-FE79491BFA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26707381-B475-D540-93B9-EAF9E6F71E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,23 +4964,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>349395</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3587</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89122D0C-E9D4-F74F-8C7C-087B36F69213}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F648A4-49EB-4D4E-A1D4-11EE9A760DA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,23 +5000,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>699566</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>186039</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168817</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>327291</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>79398</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>636549</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55137</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8">
+        <xdr:cNvPr id="11" name="图表 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E63840-DF7C-BA42-A69F-3B75FF2D04B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BB1B1D-9963-9149-91F1-9A80CB68CD18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,6 +5029,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>382427</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>140984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>816224</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>87330</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B73BCA-3EC5-5E43-9E76-4FF87AD86797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>559371</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1712</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3089AAAB-04CB-7C46-98DB-C1B1ED43BEE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3051,10 +5406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4999BF8-4BA7-154A-BB2A-5B715EC4906A}">
-  <dimension ref="A3:L4"/>
+  <dimension ref="A2:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3062,80 +5417,116 @@
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="18">
+    <row r="2" spans="1:18" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>555</v>
+      </c>
+      <c r="C2" s="1">
+        <v>532</v>
+      </c>
+      <c r="D2" s="1">
+        <v>516</v>
+      </c>
+      <c r="E2" s="1">
+        <v>406</v>
+      </c>
+      <c r="F2" s="1">
+        <v>338</v>
+      </c>
+      <c r="G2" s="1">
+        <v>290</v>
+      </c>
+      <c r="H2" s="1">
+        <v>255</v>
+      </c>
+      <c r="I2" s="1">
+        <v>228</v>
+      </c>
+      <c r="J2" s="1">
+        <v>205</v>
+      </c>
+      <c r="K2" s="1">
+        <v>186</v>
+      </c>
+      <c r="L2" s="1">
+        <v>170</v>
+      </c>
+      <c r="M2" s="1">
+        <v>157</v>
+      </c>
+      <c r="N2" s="1">
+        <v>138</v>
+      </c>
+      <c r="O2" s="1">
+        <v>120</v>
+      </c>
+      <c r="P2" s="1">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>102</v>
+      </c>
+      <c r="R2" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>25</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1">
         <v>40</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>45</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>50</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
+        <v>55</v>
+      </c>
+      <c r="M3" s="1">
         <v>60</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3" s="1">
+        <v>70</v>
+      </c>
+      <c r="O3" s="1">
+        <v>80</v>
+      </c>
+      <c r="P3" s="1">
         <v>90</v>
       </c>
-      <c r="L3" s="1">
+      <c r="Q3" s="1">
+        <v>95</v>
+      </c>
+      <c r="R3" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>540</v>
-      </c>
-      <c r="C4" s="1">
-        <v>465</v>
-      </c>
-      <c r="D4" s="1">
-        <v>410</v>
-      </c>
-      <c r="E4" s="1">
-        <v>342</v>
-      </c>
-      <c r="F4" s="1">
-        <v>296</v>
-      </c>
-      <c r="G4" s="1">
-        <v>224</v>
-      </c>
-      <c r="H4" s="1">
-        <v>203</v>
-      </c>
-      <c r="I4" s="1">
-        <v>188</v>
-      </c>
-      <c r="J4" s="1">
-        <v>157</v>
-      </c>
-      <c r="K4" s="1">
-        <v>106</v>
-      </c>
-      <c r="L4" s="1">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
